--- a/api.xlsx
+++ b/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\epnUStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E86A2CA-A423-4E10-B7C3-7014BA35E8F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7BFAF5-9F76-45DD-9772-4EED6194B0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" xr2:uid="{C3DDABB4-432D-4E84-9DAC-15BBDA2133BF}"/>
   </bookViews>
@@ -186,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -304,6 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +628,7 @@
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +669,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -746,7 +753,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -850,7 +857,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -932,7 +939,7 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
